--- a/Sara Centuori_2022.xlsx
+++ b/Sara Centuori_2022.xlsx
@@ -12,42 +12,456 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
-    <t xml:space="preserve">title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abstract</t>
+    <t xml:space="preserve">display_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ab</t>
   </si>
   <si>
     <t xml:space="preserve">publication_date</t>
   </si>
   <si>
+    <t xml:space="preserve">so</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">host_organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">issn_l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pdf_url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">license</t>
+  </si>
+  <si>
+    <t xml:space="preserve">version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first_page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last_page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_oa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_oa_anywhere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oa_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oa_url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">any_repository_has_fulltext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cited_by_count</t>
+  </si>
+  <si>
     <t xml:space="preserve">publication_year</t>
   </si>
   <si>
-    <t xml:space="preserve">source</t>
+    <t xml:space="preserve">cited_by_api_url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">referenced_works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">related_works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_paratext</t>
   </si>
   <si>
     <t xml:space="preserve">is_retracted</t>
   </si>
   <si>
-    <t xml:space="preserve">https://openalex.org/W4292348739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Novel Flying and Diving Wig Craft for Electronics Intelligence - a Conceptual Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wing in Ground (WIG) effect craft with a higher lift to drag ratio would decrease fuel consumption than conventional maritime vessels and seaplanes. This paper introduces the conceptual design of a submersible seaplane that merges the maturity of the seaplane class with covert underwater insertion, travel and recovery. The reconnaissance design inserts from underwater emplacement, surfaces, can fly in ground effect, keeps station on the sea surface while recharging, travels and wait for collection underwater. The design minimizes doppler and infra-red signatures to evade the surface-wave and backscatter radar systems and cube-satellite arrays typical in contested maritime areas. Five critical enabling technologies are overviewed, showing how they enable the design. The project was conducted in collaboration with two industrial partners, namely: Ron Allum and Thales Australia.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022 International Telecommunications Conference (ITC-Egypt)</t>
+    <t xml:space="preserve">https://openalex.org/W4297094011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c-Met Signaling as a Therapeutic Target in Head and Neck Cancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list(au_id = c("https://openalex.org/A5080182165", "https://openalex.org/A5073246708"), au_display_name = c("Sara Centuori", "Julie E. Bauman"), au_orcid = c(NA, "https://orcid.org/0000-0002-1398-6636"), author_position = c("first", "last"), au_affiliation_raw = c("Department of Medicine, University of Arizona College of Medicine–Tucson", "Department of Medicine, School of Medicine and Health Sciences; George Washington Cancer Center, George Washington University, Washington, DC."), institution_id = c("https://openalex.org/I138006243", 
+"https://openalex.org/I82951845"), institution_display_name = c("University of Arizona", "RMIT University"), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/04ttjf776"), institution_country_code = c("US", "AU"), institution_type = c("education", "education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I82951845"))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despite a dearth of activating driver mutations in head and neck squamous cell carcinoma (HNSCC), aberrant activation of the oncogenes, epidermal growth factor receptor (EGFR), and c-Met is near-universal in human papillomavirus (HPV)-negative disease. Although EGFR activation drove the successful development of the anti-EGFR monoclonal antibody cetuximab in HNSCC, no c-Met-targeting therapy has gained regulatory approval. Inhibition of the c-Met pathway may subvert oncogenesis within the tumor-intrinsic compartment, blocking tumoral proliferation, invasion, migration, and metastasis, or the tumor-extrinsic compartment, modulating the immunosuppressive tumor microenvironment. This review discusses the rationale and current drug development strategies for targeting c-Met or its exclusive ligand hepatocyte growth factor (HGF) in HNSCC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cancer Journal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://openalex.org/S4210176243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lippincott Williams &amp; Wilkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1528-9117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1097/ppo.0000000000000619</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://api.openalex.org/works?filter=cites:W4297094011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c(openalex = "https://openalex.org/W4297094011", doi = "https://doi.org/10.1097/ppo.0000000000000619", pmid = "https://pubmed.ncbi.nlm.nih.gov/36165722")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">article</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("https://openalex.org/W960289126", "https://openalex.org/W1559021784", "https://openalex.org/W1583958653", "https://openalex.org/W1920052832", "https://openalex.org/W1964550379", "https://openalex.org/W1985073399", "https://openalex.org/W1986241711", "https://openalex.org/W1989597355", "https://openalex.org/W1990371568", "https://openalex.org/W1993573924", "https://openalex.org/W1999025555", "https://openalex.org/W1999258789", "https://openalex.org/W2004637409", "https://openalex.org/W2007904495", 
+"https://openalex.org/W2015307495", "https://openalex.org/W2017940718", "https://openalex.org/W2018495916", "https://openalex.org/W2029587780", "https://openalex.org/W2043503111", "https://openalex.org/W2044558458", "https://openalex.org/W2053424592", "https://openalex.org/W2055787036", "https://openalex.org/W2058191258", "https://openalex.org/W2060878129", "https://openalex.org/W2062312459", "https://openalex.org/W2067288984", "https://openalex.org/W2076577525", "https://openalex.org/W2088112836", 
+"https://openalex.org/W2091621595", "https://openalex.org/W2093264762", "https://openalex.org/W2095317156", "https://openalex.org/W2097501495", "https://openalex.org/W2101581271", "https://openalex.org/W2102979753", "https://openalex.org/W2110887292", "https://openalex.org/W2117750856", "https://openalex.org/W2119482227", "https://openalex.org/W2120725180", "https://openalex.org/W2121262970", "https://openalex.org/W2127386980", "https://openalex.org/W2142969867", "https://openalex.org/W2146303187", 
+"https://openalex.org/W2151087797", "https://openalex.org/W2153135869", "https://openalex.org/W2155598934", "https://openalex.org/W2157329103", "https://openalex.org/W2158508310", "https://openalex.org/W2167758467", "https://openalex.org/W2169281418", "https://openalex.org/W2218851706", "https://openalex.org/W2516929867", "https://openalex.org/W2540173214", "https://openalex.org/W2558473966", "https://openalex.org/W2575489745", "https://openalex.org/W2757697322", "https://openalex.org/W2758552192", 
+"https://openalex.org/W2768089870", "https://openalex.org/W2771610297", "https://openalex.org/W2804989146", "https://openalex.org/W2894761459", "https://openalex.org/W2980924315", "https://openalex.org/W2989663560", "https://openalex.org/W2998931141", "https://openalex.org/W3003281450", "https://openalex.org/W3004905091", "https://openalex.org/W3006910168", "https://openalex.org/W3024670790", "https://openalex.org/W3031018272", "https://openalex.org/W3034184630", "https://openalex.org/W3082015854", 
+"https://openalex.org/W3093030175", "https://openalex.org/W3096967116", "https://openalex.org/W3099369238", "https://openalex.org/W3119722422", "https://openalex.org/W3128689211", "https://openalex.org/W3135542248", "https://openalex.org/W3156038161", "https://openalex.org/W3179893907", "https://openalex.org/W3191219220", "https://openalex.org/W3205475594", "https://openalex.org/W3213538658", "https://openalex.org/W4210360635", "https://openalex.org/W4225569540", "https://openalex.org/W4297094029", 
+"https://openalex.org/W4322700007")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("https://openalex.org/W1505370951", "https://openalex.org/W337839523", "https://openalex.org/W2330396769", "https://openalex.org/W2338212926", "https://openalex.org/W2036920584", "https://openalex.org/W3201171647", "https://openalex.org/W2739990886", "https://openalex.org/W2096869304", "https://openalex.org/W2103094929", "https://openalex.org/W4362476735")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://openalex.org/W4224313890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Randomized Crossover Trial Evaluating Detoxification of Tobacco Carcinogens by Broccoli Seed and Sprout Extract in Current Smokers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list(au_id = c("https://openalex.org/A5073246708", "https://openalex.org/A5000743426", "https://openalex.org/A5080182165", "https://openalex.org/A5019549663", "https://openalex.org/A5038842153", "https://openalex.org/A5085287919", "https://openalex.org/A5009164151", "https://openalex.org/A5075315434", "https://openalex.org/A5080773721", "https://openalex.org/A5016300158", "https://openalex.org/A5020366697", "https://openalex.org/A5018050941"), au_display_name = c("Julie E. Bauman", "Chiu‐Hsieh Hsu", 
+"Sara Centuori", "José Guillen-Rodriguez", "Linda L. Garland", "Emily Ho", "Megha Padi", "Vignesh Bageerathan", "Lisa Bengtson", "M Wójtowicz", "Éva Szabó", "H.‐H. Sherry Chow"), au_orcid = c("https://orcid.org/0000-0002-1398-6636", NA, NA, NA, NA, "https://orcid.org/0000-0002-7687-2820", "https://orcid.org/0000-0002-5526-4287", NA, NA, "https://orcid.org/0000-0001-9630-7530", "https://orcid.org/0000-0003-3891-0942", NA), author_position = c("first", "middle", "middle", "middle", "middle", 
+"middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Department of Medicine, Division of Hematology/Oncology, George Washington (GW) University and GW Cancer Center, Washington, DC 20037, USA; Department of Medicine, Division of Hematology/Oncology, University of Arizona (UA) and UA Cancer Center, Tucson, AZ 85724, USA", "Department of Epidemiology and Biostatistics, UA and UA Cancer Center, Tucson, AZ 85724, USA", "Department of Medicine, Division of Hematology/Oncology, University of Arizona (UA) and UA Cancer Center, Tucson, AZ 85724, USA", 
+"Biostatistics and Bioinformatics Shared Resource, UA Cancer Center, Tucson, AZ 85724, USA", "Department of Medicine, Division of Hematology/Oncology, University of Arizona (UA) and UA Cancer Center, Tucson, AZ 85724, USA", "Linus Pauling Institute, College of Public Health and Human Sciences, Oregon State University, Corvallis, OR 97331, USA", "Biostatistics and Bioinformatics Shared Resource, UA Cancer Center, Tucson, AZ 85724, USA; Department of Molecular and Cellular Biology, UA, Tucson, AZ 85724, USA", 
+"Biostatistics and Bioinformatics Shared Resource, UA Cancer Center, Tucson, AZ 85724, USA", "Division of Cancer Prevention, National Cancer Institute, Bethesda, MD 20892, USA", "Division of Cancer Prevention, National Cancer Institute, Bethesda, MD 20892, USA", "Division of Cancer Prevention, National Cancer Institute, Bethesda, MD 20892, USA", "Department of Medicine, Division of Hematology/Oncology, University of Arizona (UA) and UA Cancer Center, Tucson, AZ 85724, USA"), institution_id = c("https://openalex.org/I138006243", 
+NA, "https://openalex.org/I138006243", NA, "https://openalex.org/I138006243", "https://openalex.org/I131249849", "https://openalex.org/I138006243", NA, "https://openalex.org/I4210140884", "https://openalex.org/I4210140884", "https://openalex.org/I4210140884", "https://openalex.org/I138006243"), institution_display_name = c("University of Arizona", NA, "University of Arizona", NA, "University of Arizona", "Oregon State University", "University of Arizona", NA, "National Cancer Institute", "National Cancer Institute", 
+"National Cancer Institute", "University of Arizona"), institution_ror = c("https://ror.org/03m2x1q45", NA, "https://ror.org/03m2x1q45", NA, "https://ror.org/03m2x1q45", "https://ror.org/00ysfqy60", "https://ror.org/03m2x1q45", NA, "https://ror.org/040gcmg81", "https://ror.org/040gcmg81", "https://ror.org/040gcmg81", "https://ror.org/03m2x1q45"), institution_country_code = c("US", NA, "US", NA, "US", "US", "US", NA, "US", "US", "US", "US"), institution_type = c("education", NA, "education", NA, "education", 
+"education", "education", NA, "government", "government", "government", "education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", NA, "https://openalex.org/I138006243, https://openalex.org/I3132585960", NA, "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I131249849", "https://openalex.org/I138006243, https://openalex.org/I3132585960", NA, "https://openalex.org/I1299303238, https://openalex.org/I4210140884", 
+"https://openalex.org/I1299303238, https://openalex.org/I4210140884", "https://openalex.org/I1299303238, https://openalex.org/I4210140884", "https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consumption of cruciferous vegetables, rich in the isothiocyanate glucoraphanin, is associated with reduced risk of tobacco-related cancers. Sulforaphane, released by hydrolysis of glucoraphanin, potently induces cytoprotective phase II enzymes. Sulforaphane decreased the incidence of oral cancer in the 4NQO carcinogenesis model. In residents of Qidong, China, broccoli seed and sprout extracts (BSSE) increased detoxification of air pollutants benzene and acrolein, also found in tobacco smoke. This randomized, crossover trial evaluated detoxification of tobacco carcinogens by the BSSE Avmacol® in otherwise healthy smokers. Participants were treated for 2 weeks with both low and higher-dose BSSE (148 µmol vs. 296 µmol of glucoraphanin daily), separated by a 2-week washout, with randomization to low-high vs. high-low sequence. The primary endpoint was detoxification of benzene, measured by urinary excretion of its mercapturic acid, SPMA. Secondary endpoints included bioavailability, detoxification of acrolein and crotonaldehyde, modulation by GST genotype, and toxicity. Forty-nine participants enrolled, including 26 (53%) females with median use of 20 cigarettes/day. Low and higher-dose BSSE showed a mean bioavailability of 11% and 10%, respectively. Higher-dose BSSE significantly upregulated urinary excretion of the mercapturic acids of benzene (p = 0.04), acrolein (p &lt; 0.01), and crotonaldehyde (p = 0.02), independent of GST genotype. Retention and compliance were high resulting in early study completion. In conclusion, BSSE significantly upregulated detoxification of the tobacco carcinogens benzene, acrolein, and crotonaldehyde in current tobacco smokers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://openalex.org/S168415115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multidisciplinary Digital Publishing Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2072-6694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.3390/cancers14092129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mdpi.com/2072-6694/14/9/2129/pdf?version=1650851922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cc-by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">publishedVersion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c(funder = "https://openalex.org/F4320337351", funder_display_name = "National Cancer Institute", award_id = "P30CA023074", funder = "https://openalex.org/F4320337351", funder_display_name = "National Cancer Institute", award_id = "HHSN2612012000311")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://api.openalex.org/works?filter=cites:W4224313890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c(openalex = "https://openalex.org/W4224313890", doi = "https://doi.org/10.3390/cancers14092129", pmid = "https://pubmed.ncbi.nlm.nih.gov/35565256")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("https://openalex.org/W1507261291", "https://openalex.org/W1577564952", "https://openalex.org/W1585774667", "https://openalex.org/W1683287975", "https://openalex.org/W1858597869", "https://openalex.org/W1963918303", "https://openalex.org/W1965247154", "https://openalex.org/W1966165057", "https://openalex.org/W1981183971", "https://openalex.org/W1991631628", "https://openalex.org/W1991949008", "https://openalex.org/W1998128080", "https://openalex.org/W2018451290", "https://openalex.org/W2019991171", 
+"https://openalex.org/W2021270662", "https://openalex.org/W2025054234", "https://openalex.org/W2032303437", "https://openalex.org/W2038794700", "https://openalex.org/W2042196153", "https://openalex.org/W2046969742", "https://openalex.org/W2048893736", "https://openalex.org/W2061002561", "https://openalex.org/W2076295321", "https://openalex.org/W2087315272", "https://openalex.org/W2090920304", "https://openalex.org/W2096771598", "https://openalex.org/W2097308306", "https://openalex.org/W2105482159", 
+"https://openalex.org/W2114544044", "https://openalex.org/W2129159539", "https://openalex.org/W2131059541", "https://openalex.org/W2140320332", "https://openalex.org/W2148947217", "https://openalex.org/W2161819929", "https://openalex.org/W2162171882", "https://openalex.org/W2165080088", "https://openalex.org/W2188572843", "https://openalex.org/W2260296419", "https://openalex.org/W2339318589", "https://openalex.org/W2339556534", "https://openalex.org/W2470901693", "https://openalex.org/W2521456713", 
+"https://openalex.org/W2566586819", "https://openalex.org/W2783696441", "https://openalex.org/W2928097459", "https://openalex.org/W2953446473", "https://openalex.org/W2956016099", "https://openalex.org/W2970962076", "https://openalex.org/W2978930973", "https://openalex.org/W2994508410", "https://openalex.org/W3008096826", "https://openalex.org/W3096094068", "https://openalex.org/W3107533236", "https://openalex.org/W3123008734", "https://openalex.org/W3125924430", "https://openalex.org/W3146968298", 
+"https://openalex.org/W4226039327")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("https://openalex.org/W2355203060", "https://openalex.org/W3088933880", "https://openalex.org/W3115077728", "https://openalex.org/W2392939420", "https://openalex.org/W4281608792", "https://openalex.org/W2108150108", "https://openalex.org/W1976707722", "https://openalex.org/W2131993003", "https://openalex.org/W2063637433", "https://openalex.org/W2763321376")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://openalex.org/W4212869151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immunotherapy to prevent progression on active surveillance study (IPASS): A phase II, randomized, double-blind, controlled trial of PROSTVAC in prostate cancer patients who are candidates for active surveillance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list(au_id = c("https://openalex.org/A5035189778", "https://openalex.org/A5038850729", "https://openalex.org/A5055870934", "https://openalex.org/A5068192998", "https://openalex.org/A5029026130", "https://openalex.org/A5005126814", "https://openalex.org/A5073241182", "https://openalex.org/A5070669850", "https://openalex.org/A5074041292", "https://openalex.org/A5032641888", "https://openalex.org/A5000743426", "https://openalex.org/A5016300158", "https://openalex.org/A5059931764", "https://openalex.org/A5052157883", 
+"https://openalex.org/A5080182165", "https://openalex.org/A5018881675", "https://openalex.org/A5073246708", "https://openalex.org/A5018050941"), au_display_name = c("J. Kellogg Parsons", "Peter A. Pinto", "Howard L. Parnes", "Christian P. Pavlovich", "Edward Uchio", "Mike Nguyen", "Hyung Lae Kim", "James L. Gulley", "Houssein Abdul Sater", "Christina Jamieson", "Chiu‐Hsieh Hsu", "M Wójtowicz", "Jeffrey Schlom", "Renee N. Donahue", "Sara Centuori", "Shania Bailey", "Julie E. Bauman", "H.‐H. Sherry Chow"
+), au_orcid = c(NA, "https://orcid.org/0000-0002-0190-5931", "https://orcid.org/0000-0003-3401-0007", "https://orcid.org/0000-0002-8532-0251", NA, "https://orcid.org/0000-0001-5602-7729", NA, "https://orcid.org/0000-0002-6569-2912", "https://orcid.org/0000-0003-1975-3726", "https://orcid.org/0000-0001-5328-2628", NA, "https://orcid.org/0000-0001-9630-7530", "https://orcid.org/0000-0001-7932-4072", "https://orcid.org/0000-0002-6828-3073", NA, NA, "https://orcid.org/0000-0002-1398-6636", NA), author_position = c("first", 
+"middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Janssen Research and Development, LLC, San Diego, CA;", "Urologic Oncology Branch, National Cancer Institute, National Institutes of Health, Bethesda, MD;", "National Cancer Institute at the National Institutes of Health, Bethesda, MD;", "Johns Hopkins Medical Institution, Baltimore, MD;", "University of California, Irvine Medical Center, Orange, CA;", 
+"University of Southern California, Los Angeles, CA;", "Cedars-Sinai Medical Center, Los Angeles, CA;", "National Cancer Institute, National Institutes of Health, Bethesda, MD;", "National Cancer Institute, Bethesda, MD;", "Department of Urology, San Diego, CA;", "University of Arizona, Tucson, AZ;", "Natl Cancer Inst, Bethesda, MD;", "Laboratory of Tumor Immunology and Biology, National Cancer Institute, National Institutes of Health, Bethesda, MD;", "Laboratory of Tumor Immunology and Biology, National Cancer Institute, National Institutes of Health, Bethesda, MD;", 
+"University of Arizona Center Center, Tucson, AZ;", "National Cancer Institute, Salisbury, MD;", "University of Arizona Cancer Center, Tucson, AZ;", "The University of Arizona Cancer Center, Tucson, AK;"), institution_id = c("https://openalex.org/I4210151386", "https://openalex.org/I1299303238", "https://openalex.org/I1299303238", "https://openalex.org/I145311948", "https://openalex.org/I4210096636", "https://openalex.org/I1174212", "https://openalex.org/I1282927834", "https://openalex.org/I1299303238", 
+"https://openalex.org/I4210140884", "https://openalex.org/I4210092984", "https://openalex.org/I138006243", "https://openalex.org/I181190486", "https://openalex.org/I1299303238", "https://openalex.org/I1299303238", "https://openalex.org/I2800531696", "https://openalex.org/I4210140884", "https://openalex.org/I138006243", "https://openalex.org/I138006243"), institution_display_name = c("Janssen (United States)", "National Institutes of Health", "National Institutes of Health", "Johns Hopkins University", 
+"University of California, Irvine Medical Center", "University of Southern California", "Cedars-Sinai Medical Center", "National Institutes of Health", "National Cancer Institute", "Urology San Antonio", "University of Arizona", "NTL Institute for Applied Behavioral Science", "National Institutes of Health", "National Institutes of Health", "Arizona Science Center", "National Cancer Institute", "University of Arizona", "University of Arizona"), institution_ror = c("https://ror.org/05af73403", "https://ror.org/01cwqze88", 
+"https://ror.org/01cwqze88", "https://ror.org/00za53h95", "https://ror.org/00cm8nm15", "https://ror.org/03taz7m60", "https://ror.org/02pammg90", "https://ror.org/01cwqze88", "https://ror.org/040gcmg81", "https://ror.org/00fff9d21", "https://ror.org/03m2x1q45", "https://ror.org/01cs7w326", "https://ror.org/01cwqze88", "https://ror.org/01cwqze88", "https://ror.org/05g3rxr48", "https://ror.org/040gcmg81", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45"), institution_country_code = c("US", "US", 
+"US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US"), institution_type = c("company", "government", "government", "education", "healthcare", "education", "healthcare", "government", "government", "healthcare", "education", "nonprofit", "government", "government", "nonprofit", "government", "education", "education"), institution_lineage = c("https://openalex.org/I1330063522, https://openalex.org/I4210151386", "https://openalex.org/I1299022934, https://openalex.org/I1299303238", 
+"https://openalex.org/I1299022934, https://openalex.org/I1299303238", "https://openalex.org/I145311948", "https://openalex.org/I4210096636, https://openalex.org/I4210137750", "https://openalex.org/I1174212", "https://openalex.org/I1282927834", "https://openalex.org/I1299022934, https://openalex.org/I1299303238", "https://openalex.org/I1299303238, https://openalex.org/I4210140884", "https://openalex.org/I4210092984", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I181190486", 
+"https://openalex.org/I1299022934, https://openalex.org/I1299303238", "https://openalex.org/I1299022934, https://openalex.org/I1299303238", "https://openalex.org/I2800531696", "https://openalex.org/I1299303238, https://openalex.org/I4210140884", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">249 Background: Immunotherapy could potentially prevent disease progression for early-stage prostate cancer. In this randomized Phase 2 clinical trial, we evaluated the clinical effects of PROSTVAC, a vaccinia/fowlpox viral vector-based immunotherapy that contains PSA and three T-cell costimulatory molecules, in patients with localized prostate cancer. Methods:154 patients with clinically localized, low- or favorable intermediate-risk prostate cancer active surveillance were randomized (2:1) to receive 7 doses of subcutaneous PROSTVAC or placebo (empty fowlpox vector) over 140 days. Post-intervention prostate biopsy was performed 7-14 days after the last dose. Participants were followed for 6 months post-treatment. The primary outcome was change from baseline to post-vaccination in CD4 and CD8 T cell infiltration in biopsy tumor tissue. Secondary outcomes included changes in prostate biopsy Gleason grade (Grade Group) and serum PSA. Results: There were no differences in CD4 and CD8 densities (count of cells/mm 2 ) in post-treatment biopsy tumor tissue between groups ( p = 0.63 and p = 0.75, respectively). Compared to placebo, patients who received PROSTVAC were less likely to demonstrate upgrading at follow-up biopsy, but this difference did not attain significance (22% vs. 40%, p= 0.08). There was no difference in the change of PSA from baseline to 6 months post-treatment between arms ( p= 0.30). Conclusions: In this first-of-kind trial of immunotherapy for localized prostate cancer, PROSTVAC was well tolerated but did not elicit significant prostate tissue T-cell responses compared to placebo. The favorable post-treatment biopsy grade findings in PROSTVAC patients merit further evaluation and longer-term clinical follow-up. Clinical trial information: NCT02326805.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Clinical Oncology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://openalex.org/S15137598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0732-183X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1200/jco.2022.40.6_suppl.249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6_suppl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c(funder = "https://openalex.org/F4320332161", funder_display_name = "National Institutes of Health")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://api.openalex.org/works?filter=cites:W4212869151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c(openalex = "https://openalex.org/W4212869151", doi = "https://doi.org/10.1200/jco.2022.40.6_suppl.249")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("https://openalex.org/W2088520467", "https://openalex.org/W2075763133", "https://openalex.org/W2376423713", "https://openalex.org/W1583600832", "https://openalex.org/W2936837947", "https://openalex.org/W2566665866", "https://openalex.org/W2358184952", "https://openalex.org/W3115500073", "https://openalex.org/W2414890839", "https://openalex.org/W1606407388")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://openalex.org/W4220964347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract P1-10-02: Effect of metformin on metabolic markers associated with breast cancer risk in a phase II clinical trial in overweight/obese premenopausal women</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list(au_id = c("https://openalex.org/A5059719154", "https://openalex.org/A5023190337", "https://openalex.org/A5082690204", "https://openalex.org/A5080182165", "https://openalex.org/A5016715621", "https://openalex.org/A5050685636", "https://openalex.org/A5038135307", "https://openalex.org/A5068253610", "https://openalex.org/A5022251680"), au_display_name = c("Edgar O. Tapia", "Diana Villa-Guilen", "Pavani Chalasani", "Sara Centuori", "Denise J. Roe", "Jose Guillen", "Catherine Cordova", "Liane Pinto", 
+"Sherry Chow"), au_orcid = c(NA, NA, "https://orcid.org/0000-0002-7953-2979", NA, "https://orcid.org/0000-0001-6989-6579", NA, NA, NA, NA), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("University of Arizona Cancer Center, Tucson, AZ;", "Universidad de Sonora, Hermosillo, Mexico", "University of Arizona Cancer Center, Tucson, AZ;", "University of Arizona Cancer Center, Tucson, AZ;", "Department of Epidemiology and Biostatistics, University of Arizona, Tucson, AZ", 
+"Department of Epidemiology and Biostatistics, University of Arizona, Tucson, AZ", "University of Arizona Cancer Center, Tucson, AZ;", "University of Arizona Cancer Center, Tucson, AZ;", "University of Arizona Cancer Center, Tucson, AZ;"), institution_id = c("https://openalex.org/I138006243", "https://openalex.org/I4210088102", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", "https://openalex.org/I138006243", 
+"https://openalex.org/I138006243", "https://openalex.org/I138006243"), institution_display_name = c("University of Arizona", "Universidad de Hermosillo", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona", "University of Arizona"), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/0019g1982", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", 
+"https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45"), institution_country_code = c("US", "MX", "US", "US", "US", "US", "US", "US", "US"), institution_type = c("education", "education", "education", "education", "education", "education", "education", "education", "education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I4210088102", "https://openalex.org/I138006243, https://openalex.org/I3132585960", 
+"https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract Background: The increasing rate of obesity in the United States is accompanied by serious health concerns. Obesity increases breast cancer burden and is associated with increased risk of triple-negative breast cancer in premenopausal women and overall poor prognosis in breast cancer patients. There is a need for intervention strategies aiming to reduce obesity-associated dysregulation to attenuate breast cancer risk.Methods: We conducted a Phase II, double-blind, randomized, placebo-controlled clinical trial in overweight/obese premenopausal women with elements of metabolic syndrome to assess the potential of metformin to reduce obesity-associated breast cancer risk. Study participants received metformin (850 mg BID, n = 76) or placebo (n = 75) for 12 months. Fasting blood samples were collected at baseline, 6-months and 12-months from each participant. We analyzed the effects of metformin on circulating levels of insulin/IGF axis, adipokines, and neutrophil-to-lymphocyte ratio in samples collected from this trial. Serum concentrations of insulin, IGF-1, IGFBP-3, leptin and high-molecular weight adiponectin were measured using ELISA immunoassays. Results: The study population included 151 women and had a mean age of 39.5 years, mean body mass index (BMI) was 37.8 and study participants had a large waist and at least one other component of metabolic syndrome. Metformin treatment did not result in significant changes in members of the insulin/IGF axis compared to the placebo group, however, limiting the analysis to participants with detectable metformin in the blood serum resulted in favorable changes in insulin (p=0.0215), HOMA-IR (p&amp;amp;lt;0.001) and a significant increase in IGFBP-3 (p=0.0176) in the metformin group after the intervention. We observed significant decreases in leptin (p=0.0018) and the leptin-to-adiponectin ratio (p=0.0036) in the metformin arm longitudinally. Additionally, we observed a significant reduction in the neutrophil-to-lymphocyte ratio (NLR), a systemic inflammation marker, in the metformin group compared to the placebo group (p=0.0170). Conclusions: We conclude that metformin led to favorable changes in metabolic markers associated with breast cancer risk in the metformin treated participants, however, the changes were not significantly different from the placebo group. The NLR was significantly reduced after metformin intervention compared to the placebo group. More research is needed to understand the effects of metformin on the insulin/IGF axis and adipokines in overweight/obese premenopausal women. Citation Format: Edgar Tapia, Diana Villa-Guilen, Pavani Chalasani, Sara Centuori, Denise J. Roe, Jose Guillen, Catherine Cordova, Liane Pinto, Sherry Chow. Effect of metformin on metabolic markers associated with breast cancer risk in a phase II clinical trial in overweight/obese premenopausal women [abstract]. In: Proceedings of the 2021 San Antonio Breast Cancer Symposium; 2021 Dec 7-10; San Antonio, TX. Philadelphia (PA): AACR; Cancer Res 2022;82(4 Suppl):Abstract nr P1-10-02.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancer Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://openalex.org/S168522863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American Association for Cancer Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0008-5472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1158/1538-7445.sabcs21-p1-10-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4_Supplement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://api.openalex.org/works?filter=cites:W4220964347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c(openalex = "https://openalex.org/W4220964347", doi = "https://doi.org/10.1158/1538-7445.sabcs21-p1-10-02")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("https://openalex.org/W2048572539", "https://openalex.org/W1964378492", "https://openalex.org/W2118495058", "https://openalex.org/W1979957210", "https://openalex.org/W2086591008", "https://openalex.org/W2589737317", "https://openalex.org/W2033840628", "https://openalex.org/W1965393911", "https://openalex.org/W1967954429", "https://openalex.org/W2135360268")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://openalex.org/W4221036852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locally produced autoantibodies in cancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list(au_id = c("https://openalex.org/A5080182165", "https://openalex.org/A5011630697"), au_display_name = c("Sara Centuori", "Deepta Bhattacharya"), au_orcid = c(NA, "https://orcid.org/0000-0001-8377-7699"), author_position = c("first", "last"), au_affiliation_raw = c("Department of Immunobiology, University of Arizona College of Medicine, Tucson, AZ, USA", "Department of Immunobiology, University of Arizona College of Medicine, Tucson, AZ, USA"), institution_id = c("https://openalex.org/I138006243", 
+"https://openalex.org/I138006243"), institution_display_name = c("University of Arizona", "University of Arizona"), institution_ror = c("https://ror.org/03m2x1q45", "https://ror.org/03m2x1q45"), institution_country_code = c("US", "US"), institution_type = c("education", "education"), institution_lineage = c("https://openalex.org/I138006243, https://openalex.org/I3132585960", "https://openalex.org/I138006243, https://openalex.org/I3132585960"))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The function and antigen-specificities of tumor-infiltrating B cells are mostly unknown. In a new study by Mazor et al., matrix metalloproteinase 14 (MMP14), a self-antigen that is overexpressed by ovarian cancers, is shown to drive B cell activation and autoantibody production in tertiary lymphoid structures (Mazor et al., 2022).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-03-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://openalex.org/S110447773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0092-8674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1016/j.cell.2022.03.006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">publisher-specific-oa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hybrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://api.openalex.org/works?filter=cites:W4221036852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c(openalex = "https://openalex.org/W4221036852", doi = "https://doi.org/10.1016/j.cell.2022.03.006", pmid = "https://pubmed.ncbi.nlm.nih.gov/35364029")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("https://openalex.org/W1982935132", "https://openalex.org/W2080040601", "https://openalex.org/W2112241054", "https://openalex.org/W2793967240", "https://openalex.org/W2998795792", "https://openalex.org/W3000282923", "https://openalex.org/W3000311037", "https://openalex.org/W3104338697", "https://openalex.org/W4221041063")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c("https://openalex.org/W1977810547", "https://openalex.org/W2134281733", "https://openalex.org/W2345734417", "https://openalex.org/W2123667712", "https://openalex.org/W2182119931", "https://openalex.org/W4300815327", "https://openalex.org/W2013965818", "https://openalex.org/W4221081641", "https://openalex.org/W4226487317", "https://openalex.org/W2465292960")</t>
   </si>
 </sst>
 </file>
@@ -401,28 +815,606 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2022</v>
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" t="s">
+        <v>76</v>
+      </c>
+      <c r="S3" t="s">
+        <v>76</v>
+      </c>
+      <c r="T3" t="s">
+        <v>77</v>
+      </c>
+      <c r="U3" t="s">
+        <v>70</v>
+      </c>
+      <c r="V3" t="s">
+        <v>76</v>
+      </c>
+      <c r="W3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O4" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>95</v>
+      </c>
+      <c r="R4" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4" t="s">
+        <v>50</v>
+      </c>
+      <c r="U4" t="s">
+        <v>44</v>
+      </c>
+      <c r="V4" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" t="s">
+        <v>51</v>
+      </c>
+      <c r="X4" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" t="s">
+        <v>111</v>
+      </c>
+      <c r="O5" t="s">
+        <v>112</v>
+      </c>
+      <c r="P5" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>114</v>
+      </c>
+      <c r="R5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" t="s">
+        <v>49</v>
+      </c>
+      <c r="W5" t="s">
+        <v>51</v>
+      </c>
+      <c r="X5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s">
+        <v>128</v>
+      </c>
+      <c r="M6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" t="s">
+        <v>129</v>
+      </c>
+      <c r="O6" t="s">
+        <v>130</v>
+      </c>
+      <c r="P6" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>132</v>
+      </c>
+      <c r="R6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T6" t="s">
+        <v>133</v>
+      </c>
+      <c r="U6" t="s">
+        <v>127</v>
+      </c>
+      <c r="V6" t="s">
+        <v>49</v>
+      </c>
+      <c r="W6" t="s">
+        <v>51</v>
+      </c>
+      <c r="X6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
